--- a/webdevelopment/assignment/1-html-Assignment-31-May-2022.xlsx
+++ b/webdevelopment/assignment/1-html-Assignment-31-May-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2022\mean_training_May-2022\webdevelopment\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB4A34-62EC-4F97-AF42-CE7C4851BE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05410D4A-4913-44A0-BF2A-90DCEC3C26E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="D2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
